--- a/www.eia.gov/forecasts/steo/xls/Fig9.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig9.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Annual Production (Million barrels per day)</t>
@@ -44,12 +44,12 @@
     <t>United States</t>
   </si>
   <si>
+    <t>Canada</t>
+  </si>
+  <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
@@ -65,33 +65,33 @@
     <t>Malaysia</t>
   </si>
   <si>
+    <t>Syria</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
-    <t>Syria</t>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Other North Sea</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Sudan/S. Sudan</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
   <si>
     <t>Azerbaijan</t>
   </si>
   <si>
-    <t>Other North Sea</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Sudan/S. Sudan</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>Colombia</t>
   </si>
   <si>
@@ -107,7 +107,7 @@
     <t>Total Non-OPEC</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
 </sst>
 </file>
@@ -293,10 +293,10 @@
                   <c:v>United States</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Russia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Brazil</c:v>
@@ -314,13 +314,13 @@
                   <c:v>Malaysia</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Syria</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>India</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Syria</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>Azerbaijan</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Other North Sea</c:v>
@@ -329,16 +329,16 @@
                   <c:v>Egypt</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>Vietnam</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Sudan/S. Sudan</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Norway</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>Vietnam</c:v>
+                  <c:v>United Kingdom</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>United Kingdom</c:v>
+                  <c:v>Azerbaijan</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Colombia</c:v>
@@ -359,64 +359,64 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-0.29236992599999923</c:v>
+                  <c:v>-0.28619570599999911</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21084235500000048</c:v>
+                  <c:v>1.9753964400000434E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3691825600000271E-2</c:v>
+                  <c:v>0.21067745699999918</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9932233900000345E-2</c:v>
+                  <c:v>5.1728806500000335E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.2538806999999892E-2</c:v>
+                  <c:v>-1.981769550000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.6865397670000013E-2</c:v>
+                  <c:v>-2.3309121410000022E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7932647240000108E-2</c:v>
+                  <c:v>2.7933295840000039E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0852013890000012E-2</c:v>
+                  <c:v>7.2128598799999777E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.2807000390000045E-2</c:v>
+                  <c:v>-3.8517698900000091E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.8360172199999876E-4</c:v>
+                  <c:v>-1.5717019050000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7668911099999516E-3</c:v>
+                  <c:v>4.8779953199999948E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.3421264019999999E-2</c:v>
+                  <c:v>-2.4059369170000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.4390849489999913E-2</c:v>
+                  <c:v>-1.4393330250000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.6132754399999523E-3</c:v>
+                  <c:v>-3.0279675520000049E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3640170200000004E-2</c:v>
+                  <c:v>-3.6121761299999777E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.1980681560000002E-2</c:v>
+                  <c:v>5.6605448660000057E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1810662770000007E-2</c:v>
+                  <c:v>-1.0138945260000032E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.10502087102000002</c:v>
+                  <c:v>-0.10501786735999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.10848375640000008</c:v>
+                  <c:v>-0.13060865550000011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.28098415390000042</c:v>
+                  <c:v>-0.31210967740000051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -451,10 +451,10 @@
                   <c:v>United States</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Russia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Brazil</c:v>
@@ -472,13 +472,13 @@
                   <c:v>Malaysia</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Syria</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>India</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Syria</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>Azerbaijan</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Other North Sea</c:v>
@@ -487,16 +487,16 @@
                   <c:v>Egypt</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>Vietnam</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Sudan/S. Sudan</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Norway</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>Vietnam</c:v>
+                  <c:v>United Kingdom</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>United Kingdom</c:v>
+                  <c:v>Azerbaijan</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Colombia</c:v>
@@ -517,64 +517,64 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.31024361999999961</c:v>
+                  <c:v>0.3303299459999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12181072699999973</c:v>
+                  <c:v>0.18492374509999987</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19622593069999983</c:v>
+                  <c:v>5.6331937000001275E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8066803999999852E-2</c:v>
+                  <c:v>6.0673628700000037E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.802815889999982E-2</c:v>
+                  <c:v>0.13302911360000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5441250480000002E-2</c:v>
+                  <c:v>1.3805927369999971E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7270611999998859E-3</c:v>
+                  <c:v>-1.3589454699999948E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6886646399999492E-3</c:v>
+                  <c:v>2.6980248300000342E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1145759899999792E-3</c:v>
+                  <c:v>-2.6375913159999986E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.6411067070000044E-3</c:v>
+                  <c:v>4.6973435000000618E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.9475872539999957E-2</c:v>
+                  <c:v>-1.4100558400000018E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6.6022874699999956E-3</c:v>
+                  <c:v>-9.0065255999999816E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.2261981300000002E-2</c:v>
+                  <c:v>-1.225644519999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.9199806700000459E-3</c:v>
+                  <c:v>-5.9180613100000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.0512216299999988E-2</c:v>
+                  <c:v>-4.9224338999999673E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.9427175370000049E-2</c:v>
+                  <c:v>-6.9818926040000062E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.12269017636000001</c:v>
+                  <c:v>-6.0681512259999959E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.578022559999992E-2</c:v>
+                  <c:v>-1.5786928609999973E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.14174838909999998</c:v>
+                  <c:v>-0.21468175130000011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.11120500879999984</c:v>
+                  <c:v>-0.14767657959999969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -609,10 +609,10 @@
                   <c:v>United States</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Russia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Brazil</c:v>
@@ -630,13 +630,13 @@
                   <c:v>Malaysia</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Syria</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>India</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Syria</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>Azerbaijan</c:v>
+                  <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Other North Sea</c:v>
@@ -645,16 +645,16 @@
                   <c:v>Egypt</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>Vietnam</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Sudan/S. Sudan</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Norway</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>Vietnam</c:v>
+                  <c:v>United Kingdom</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>United Kingdom</c:v>
+                  <c:v>Azerbaijan</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Colombia</c:v>
@@ -675,64 +675,64 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.69276580899999907</c:v>
+                  <c:v>0.9970647750000019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2120921000000209E-2</c:v>
+                  <c:v>0.15774613139999971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15842653720000044</c:v>
+                  <c:v>8.471838899999895E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9191852100000109E-2</c:v>
+                  <c:v>5.9834432599999765E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8327117500000174E-2</c:v>
+                  <c:v>1.2837203799999974E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2724495379999967E-2</c:v>
+                  <c:v>6.2700593480000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3668632000000169E-3</c:v>
+                  <c:v>2.8681009999999896E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3405781099999921E-3</c:v>
+                  <c:v>3.3262316600000119E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5971349000000217E-3</c:v>
+                  <c:v>-3.2034514850000015E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.2056902489999983E-3</c:v>
+                  <c:v>-8.4847984000002707E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.6631685000000367E-3</c:v>
+                  <c:v>-7.1213334099999859E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.1908262520000018E-2</c:v>
+                  <c:v>-1.143627035E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.8604904960000002E-2</c:v>
+                  <c:v>-1.8601379320000055E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.9944488799999964E-2</c:v>
+                  <c:v>-1.3693055279999977E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.1021670212000001</c:v>
+                  <c:v>-4.994605113000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.3689347439999999E-2</c:v>
+                  <c:v>-4.6317144679999922E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.1577461689999984E-2</c:v>
+                  <c:v>-1.8267681340000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.0804153000000305E-3</c:v>
+                  <c:v>-6.084684080000069E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.11497253520000017</c:v>
+                  <c:v>-3.1997799000000882E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.0404695199999701E-2</c:v>
+                  <c:v>-5.8247798900000092E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -748,11 +748,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="621157840"/>
-        <c:axId val="621158400"/>
+        <c:axId val="655971952"/>
+        <c:axId val="655972512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="621157840"/>
+        <c:axId val="655971952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,7 +779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621158400"/>
+        <c:crossAx val="655972512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -787,7 +787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="621158400"/>
+        <c:axId val="655972512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,7 +813,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="621157840"/>
+        <c:crossAx val="655971952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1037,7 +1037,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -1122,41 +1122,41 @@
             <v>United States</v>
           </cell>
           <cell r="H27">
-            <v>-0.29236992599999923</v>
+            <v>-0.28619570599999911</v>
           </cell>
           <cell r="I27">
-            <v>0.31024361999999961</v>
+            <v>0.3303299459999991</v>
           </cell>
           <cell r="J27">
-            <v>0.69276580899999907</v>
+            <v>0.9970647750000019</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>Russia</v>
+            <v>Canada</v>
           </cell>
           <cell r="H28">
-            <v>0.21084235500000048</v>
+            <v>1.9753964400000434E-2</v>
           </cell>
           <cell r="I28">
-            <v>0.12181072699999973</v>
+            <v>0.18492374509999987</v>
           </cell>
           <cell r="J28">
-            <v>5.2120921000000209E-2</v>
+            <v>0.15774613139999971</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>Canada</v>
+            <v>Russia</v>
           </cell>
           <cell r="H29">
-            <v>2.3691825600000271E-2</v>
+            <v>0.21067745699999918</v>
           </cell>
           <cell r="I29">
-            <v>0.19622593069999983</v>
+            <v>5.6331937000001275E-2</v>
           </cell>
           <cell r="J29">
-            <v>0.15842653720000044</v>
+            <v>8.471838899999895E-2</v>
           </cell>
         </row>
         <row r="30">
@@ -1164,13 +1164,13 @@
             <v>Brazil</v>
           </cell>
           <cell r="H30">
-            <v>4.9932233900000345E-2</v>
+            <v>5.1728806500000335E-2</v>
           </cell>
           <cell r="I30">
-            <v>4.8066803999999852E-2</v>
+            <v>6.0673628700000037E-2</v>
           </cell>
           <cell r="J30">
-            <v>5.9191852100000109E-2</v>
+            <v>5.9834432599999765E-2</v>
           </cell>
         </row>
         <row r="31">
@@ -1178,13 +1178,13 @@
             <v>Kazakhstan</v>
           </cell>
           <cell r="H31">
-            <v>-3.2538806999999892E-2</v>
+            <v>-1.981769550000001E-2</v>
           </cell>
           <cell r="I31">
-            <v>8.802815889999982E-2</v>
+            <v>0.13302911360000014</v>
           </cell>
           <cell r="J31">
-            <v>3.8327117500000174E-2</v>
+            <v>1.2837203799999974E-2</v>
           </cell>
         </row>
         <row r="32">
@@ -1192,13 +1192,13 @@
             <v>Australia</v>
           </cell>
           <cell r="H32">
-            <v>-2.6865397670000013E-2</v>
+            <v>-2.3309121410000022E-2</v>
           </cell>
           <cell r="I32">
-            <v>1.5441250480000002E-2</v>
+            <v>1.3805927369999971E-2</v>
           </cell>
           <cell r="J32">
-            <v>6.2724495379999967E-2</v>
+            <v>6.2700593480000011E-2</v>
           </cell>
         </row>
         <row r="33">
@@ -1206,13 +1206,13 @@
             <v>Oman</v>
           </cell>
           <cell r="H33">
-            <v>2.7932647240000108E-2</v>
+            <v>2.7933295840000039E-2</v>
           </cell>
           <cell r="I33">
-            <v>8.7270611999998859E-3</v>
+            <v>-1.3589454699999948E-2</v>
           </cell>
           <cell r="J33">
-            <v>6.3668632000000169E-3</v>
+            <v>2.8681009999999896E-2</v>
           </cell>
         </row>
         <row r="34">
@@ -1220,55 +1220,55 @@
             <v>Malaysia</v>
           </cell>
           <cell r="H34">
-            <v>1.0852013890000012E-2</v>
+            <v>7.2128598799999777E-3</v>
           </cell>
           <cell r="I34">
-            <v>2.6886646399999492E-3</v>
+            <v>2.6980248300000342E-3</v>
           </cell>
           <cell r="J34">
-            <v>3.3405781099999921E-3</v>
+            <v>3.3262316600000119E-3</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>India</v>
+            <v>Syria</v>
           </cell>
           <cell r="H35">
-            <v>-1.2807000390000045E-2</v>
+            <v>-3.8517698900000091E-4</v>
           </cell>
           <cell r="I35">
-            <v>3.1145759899999792E-3</v>
+            <v>-2.6375913159999986E-3</v>
           </cell>
           <cell r="J35">
-            <v>4.5971349000000217E-3</v>
+            <v>-3.2034514850000015E-3</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>Syria</v>
+            <v>India</v>
           </cell>
           <cell r="H36">
-            <v>-3.8360172199999876E-4</v>
+            <v>-1.5717019050000003E-2</v>
           </cell>
           <cell r="I36">
-            <v>-2.6411067070000044E-3</v>
+            <v>4.6973435000000618E-3</v>
           </cell>
           <cell r="J36">
-            <v>-3.2056902489999983E-3</v>
+            <v>-8.4847984000002707E-4</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>Azerbaijan</v>
+            <v>Norway</v>
           </cell>
           <cell r="H37">
-            <v>7.7668911099999516E-3</v>
+            <v>4.8779953199999948E-2</v>
           </cell>
           <cell r="I37">
-            <v>-3.9475872539999957E-2</v>
+            <v>-1.4100558400000018E-2</v>
           </cell>
           <cell r="J37">
-            <v>-4.6631685000000367E-3</v>
+            <v>-7.1213334099999859E-2</v>
           </cell>
         </row>
         <row r="38">
@@ -1276,13 +1276,13 @@
             <v>Other North Sea</v>
           </cell>
           <cell r="H38">
-            <v>-2.3421264019999999E-2</v>
+            <v>-2.4059369170000011E-2</v>
           </cell>
           <cell r="I38">
-            <v>-6.6022874699999956E-3</v>
+            <v>-9.0065255999999816E-3</v>
           </cell>
           <cell r="J38">
-            <v>-1.1908262520000018E-2</v>
+            <v>-1.143627035E-2</v>
           </cell>
         </row>
         <row r="39">
@@ -1290,69 +1290,69 @@
             <v>Egypt</v>
           </cell>
           <cell r="H39">
-            <v>-1.4390849489999913E-2</v>
+            <v>-1.4393330250000003E-2</v>
           </cell>
           <cell r="I39">
-            <v>-1.2261981300000002E-2</v>
+            <v>-1.225644519999991E-2</v>
           </cell>
           <cell r="J39">
-            <v>-1.8604904960000002E-2</v>
+            <v>-1.8601379320000055E-2</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40" t="str">
-            <v>Sudan/S. Sudan</v>
+            <v>Vietnam</v>
           </cell>
           <cell r="H40">
-            <v>-3.6132754399999523E-3</v>
+            <v>-3.0279675520000049E-2</v>
           </cell>
           <cell r="I40">
-            <v>-4.9199806700000459E-3</v>
+            <v>-5.9180613100000001E-3</v>
           </cell>
           <cell r="J40">
-            <v>-4.9944488799999964E-2</v>
+            <v>-1.3693055279999977E-2</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>Norway</v>
+            <v>Sudan/S. Sudan</v>
           </cell>
           <cell r="H41">
-            <v>5.3640170200000004E-2</v>
+            <v>-3.6121761299999777E-3</v>
           </cell>
           <cell r="I41">
-            <v>-1.0512216299999988E-2</v>
+            <v>-4.9224338999999673E-3</v>
           </cell>
           <cell r="J41">
-            <v>-0.1021670212000001</v>
+            <v>-4.994605113000003E-2</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42" t="str">
-            <v>Vietnam</v>
+            <v>United Kingdom</v>
           </cell>
           <cell r="H42">
-            <v>-3.1980681560000002E-2</v>
+            <v>5.6605448660000057E-2</v>
           </cell>
           <cell r="I42">
-            <v>-1.9427175370000049E-2</v>
+            <v>-6.9818926040000062E-2</v>
           </cell>
           <cell r="J42">
-            <v>-1.3689347439999999E-2</v>
+            <v>-4.6317144679999922E-2</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43" t="str">
-            <v>United Kingdom</v>
+            <v>Azerbaijan</v>
           </cell>
           <cell r="H43">
-            <v>4.1810662770000007E-2</v>
+            <v>-1.0138945260000032E-2</v>
           </cell>
           <cell r="I43">
-            <v>-0.12269017636000001</v>
+            <v>-6.0681512259999959E-2</v>
           </cell>
           <cell r="J43">
-            <v>-4.1577461689999984E-2</v>
+            <v>-1.8267681340000008E-2</v>
           </cell>
         </row>
         <row r="44">
@@ -1360,13 +1360,13 @@
             <v>Colombia</v>
           </cell>
           <cell r="H44">
-            <v>-0.10502087102000002</v>
+            <v>-0.10501786735999996</v>
           </cell>
           <cell r="I44">
-            <v>-1.578022559999992E-2</v>
+            <v>-1.5786928609999973E-2</v>
           </cell>
           <cell r="J44">
-            <v>-6.0804153000000305E-3</v>
+            <v>-6.084684080000069E-3</v>
           </cell>
         </row>
         <row r="45">
@@ -1374,13 +1374,13 @@
             <v>Mexico</v>
           </cell>
           <cell r="H45">
-            <v>-0.10848375640000008</v>
+            <v>-0.13060865550000011</v>
           </cell>
           <cell r="I45">
-            <v>-0.14174838909999998</v>
+            <v>-0.21468175130000011</v>
           </cell>
           <cell r="J45">
-            <v>-0.11497253520000017</v>
+            <v>-3.1997799000000882E-3</v>
           </cell>
         </row>
         <row r="46">
@@ -1388,13 +1388,13 @@
             <v>China</v>
           </cell>
           <cell r="H46">
-            <v>-0.28098415390000042</v>
+            <v>-0.31210967740000051</v>
           </cell>
           <cell r="I46">
-            <v>-0.11120500879999984</v>
+            <v>-0.14767657959999969</v>
           </cell>
           <cell r="J46">
-            <v>-7.0404695199999701E-2</v>
+            <v>-5.8247798900000092E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1760,87 +1760,96 @@
         <v>15.123586068</v>
       </c>
       <c r="D27" s="11">
-        <v>14.831216142000001</v>
+        <v>14.837390362000001</v>
       </c>
       <c r="E27" s="11">
-        <v>15.141459762</v>
+        <v>15.167720308</v>
       </c>
       <c r="F27" s="11">
-        <v>15.834225570999999</v>
+        <v>16.164785083000002</v>
       </c>
       <c r="H27" s="12">
         <f t="shared" ref="H27:J46" si="0">D27-C27</f>
-        <v>-0.29236992599999923</v>
+        <v>-0.28619570599999911</v>
       </c>
       <c r="I27" s="12">
         <f t="shared" si="0"/>
-        <v>0.31024361999999961</v>
+        <v>0.3303299459999991</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="0"/>
-        <v>0.69276580899999907</v>
-      </c>
-      <c r="K27" s="12"/>
+        <v>0.9970647750000019</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" ref="K27:K46" si="1">SUM(H27:J27)</f>
+        <v>1.0411990150000019</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="11">
-        <v>11.029721986</v>
+        <v>4.5059315615999997</v>
       </c>
       <c r="D28" s="11">
-        <v>11.240564341000001</v>
+        <v>4.5256855260000002</v>
       </c>
       <c r="E28" s="11">
-        <v>11.362375068</v>
+        <v>4.7106092711000001</v>
       </c>
       <c r="F28" s="11">
-        <v>11.414495989000001</v>
+        <v>4.8683554024999998</v>
       </c>
       <c r="H28" s="12">
         <f t="shared" si="0"/>
-        <v>0.21084235500000048</v>
+        <v>1.9753964400000434E-2</v>
       </c>
       <c r="I28" s="12">
         <f t="shared" si="0"/>
-        <v>0.12181072699999973</v>
+        <v>0.18492374509999987</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" si="0"/>
-        <v>5.2120921000000209E-2</v>
-      </c>
-      <c r="K28" s="12"/>
+        <v>0.15774613139999971</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" si="1"/>
+        <v>0.36242384090000002</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="11">
-        <v>4.5059315615999997</v>
+        <v>11.029721986</v>
       </c>
       <c r="D29" s="11">
-        <v>4.5296233872</v>
+        <v>11.240399442999999</v>
       </c>
       <c r="E29" s="11">
-        <v>4.7258493178999998</v>
+        <v>11.296731380000001</v>
       </c>
       <c r="F29" s="11">
-        <v>4.8842758551000003</v>
+        <v>11.381449769</v>
       </c>
       <c r="H29" s="12">
         <f t="shared" si="0"/>
-        <v>2.3691825600000271E-2</v>
+        <v>0.21067745699999918</v>
       </c>
       <c r="I29" s="12">
         <f t="shared" si="0"/>
-        <v>0.19622593069999983</v>
+        <v>5.6331937000001275E-2</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="0"/>
-        <v>0.15842653720000044</v>
-      </c>
-      <c r="K29" s="12"/>
+        <v>8.471838899999895E-2</v>
+      </c>
+      <c r="K29" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35172778299999941</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
@@ -1850,27 +1859,30 @@
         <v>3.1831543781999998</v>
       </c>
       <c r="D30" s="11">
-        <v>3.2330866121000001</v>
+        <v>3.2348831847000001</v>
       </c>
       <c r="E30" s="11">
-        <v>3.2811534161</v>
+        <v>3.2955568134000002</v>
       </c>
       <c r="F30" s="11">
-        <v>3.3403452682000001</v>
+        <v>3.3553912459999999</v>
       </c>
       <c r="H30" s="12">
         <f t="shared" si="0"/>
-        <v>4.9932233900000345E-2</v>
+        <v>5.1728806500000335E-2</v>
       </c>
       <c r="I30" s="12">
         <f t="shared" si="0"/>
-        <v>4.8066803999999852E-2</v>
+        <v>6.0673628700000037E-2</v>
       </c>
       <c r="J30" s="12">
         <f t="shared" si="0"/>
-        <v>5.9191852100000109E-2</v>
-      </c>
-      <c r="K30" s="12"/>
+        <v>5.9834432599999765E-2</v>
+      </c>
+      <c r="K30" s="12">
+        <f t="shared" si="1"/>
+        <v>0.17223686780000014</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
@@ -1880,27 +1892,30 @@
         <v>1.7515083425</v>
       </c>
       <c r="D31" s="11">
-        <v>1.7189695355000001</v>
+        <v>1.731690647</v>
       </c>
       <c r="E31" s="11">
-        <v>1.8069976943999999</v>
+        <v>1.8647197606000001</v>
       </c>
       <c r="F31" s="11">
-        <v>1.8453248119000001</v>
+        <v>1.8775569644000001</v>
       </c>
       <c r="H31" s="12">
         <f t="shared" si="0"/>
-        <v>-3.2538806999999892E-2</v>
+        <v>-1.981769550000001E-2</v>
       </c>
       <c r="I31" s="12">
         <f t="shared" si="0"/>
-        <v>8.802815889999982E-2</v>
+        <v>0.13302911360000014</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="0"/>
-        <v>3.8327117500000174E-2</v>
-      </c>
-      <c r="K31" s="12"/>
+        <v>1.2837203799999974E-2</v>
+      </c>
+      <c r="K31" s="12">
+        <f t="shared" si="1"/>
+        <v>0.1260486219000001</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
@@ -1910,27 +1925,30 @@
         <v>0.41624702740000002</v>
       </c>
       <c r="D32" s="11">
-        <v>0.38938162973000001</v>
+        <v>0.39293790599</v>
       </c>
       <c r="E32" s="11">
-        <v>0.40482288021000001</v>
+        <v>0.40674383335999997</v>
       </c>
       <c r="F32" s="11">
-        <v>0.46754737558999998</v>
+        <v>0.46944442683999998</v>
       </c>
       <c r="H32" s="12">
         <f t="shared" si="0"/>
-        <v>-2.6865397670000013E-2</v>
+        <v>-2.3309121410000022E-2</v>
       </c>
       <c r="I32" s="12">
         <f t="shared" si="0"/>
-        <v>1.5441250480000002E-2</v>
+        <v>1.3805927369999971E-2</v>
       </c>
       <c r="J32" s="12">
         <f t="shared" si="0"/>
-        <v>6.2724495379999967E-2</v>
-      </c>
-      <c r="K32" s="12"/>
+        <v>6.2700593480000011E-2</v>
+      </c>
+      <c r="K32" s="12">
+        <f t="shared" si="1"/>
+        <v>5.3197399439999959E-2</v>
+      </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
@@ -1940,27 +1958,30 @@
         <v>0.99025742466</v>
       </c>
       <c r="D33" s="11">
-        <v>1.0181900719000001</v>
+        <v>1.0181907205</v>
       </c>
       <c r="E33" s="11">
-        <v>1.0269171331</v>
+        <v>1.0046012658000001</v>
       </c>
       <c r="F33" s="11">
-        <v>1.0332839963</v>
+        <v>1.0332822758</v>
       </c>
       <c r="H33" s="12">
         <f t="shared" si="0"/>
-        <v>2.7932647240000108E-2</v>
+        <v>2.7933295840000039E-2</v>
       </c>
       <c r="I33" s="12">
         <f t="shared" si="0"/>
-        <v>8.7270611999998859E-3</v>
+        <v>-1.3589454699999948E-2</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="0"/>
-        <v>6.3668632000000169E-3</v>
-      </c>
-      <c r="K33" s="12"/>
+        <v>2.8681009999999896E-2</v>
+      </c>
+      <c r="K33" s="12">
+        <f t="shared" si="1"/>
+        <v>4.3024851139999987E-2</v>
+      </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
@@ -1970,117 +1991,129 @@
         <v>0.73517808219000003</v>
       </c>
       <c r="D34" s="11">
-        <v>0.74603009608000004</v>
+        <v>0.74239094207</v>
       </c>
       <c r="E34" s="11">
-        <v>0.74871876071999999</v>
+        <v>0.74508896690000004</v>
       </c>
       <c r="F34" s="11">
-        <v>0.75205933882999998</v>
+        <v>0.74841519856000005</v>
       </c>
       <c r="H34" s="12">
         <f t="shared" si="0"/>
-        <v>1.0852013890000012E-2</v>
+        <v>7.2128598799999777E-3</v>
       </c>
       <c r="I34" s="12">
         <f t="shared" si="0"/>
-        <v>2.6886646399999492E-3</v>
+        <v>2.6980248300000342E-3</v>
       </c>
       <c r="J34" s="12">
         <f t="shared" si="0"/>
-        <v>3.3405781099999921E-3</v>
-      </c>
-      <c r="K34" s="12"/>
+        <v>3.3262316600000119E-3</v>
+      </c>
+      <c r="K34" s="12">
+        <f t="shared" si="1"/>
+        <v>1.3237116370000024E-2</v>
+      </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="11">
-        <v>1.0097811739</v>
+        <v>3.4879E-2</v>
       </c>
       <c r="D35" s="11">
-        <v>0.99697417350999995</v>
+        <v>3.4493823010999999E-2</v>
       </c>
       <c r="E35" s="11">
-        <v>1.0000887494999999</v>
+        <v>3.1856231695000001E-2</v>
       </c>
       <c r="F35" s="11">
-        <v>1.0046858844</v>
+        <v>2.8652780209999999E-2</v>
       </c>
       <c r="H35" s="12">
         <f t="shared" si="0"/>
-        <v>-1.2807000390000045E-2</v>
+        <v>-3.8517698900000091E-4</v>
       </c>
       <c r="I35" s="12">
         <f t="shared" si="0"/>
-        <v>3.1145759899999792E-3</v>
+        <v>-2.6375913159999986E-3</v>
       </c>
       <c r="J35" s="12">
         <f t="shared" si="0"/>
-        <v>4.5971349000000217E-3</v>
-      </c>
-      <c r="K35" s="12"/>
+        <v>-3.2034514850000015E-3</v>
+      </c>
+      <c r="K35" s="12">
+        <f t="shared" si="1"/>
+        <v>-6.226219790000001E-3</v>
+      </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="11">
-        <v>3.4879E-2</v>
+        <v>1.0097811739</v>
       </c>
       <c r="D36" s="11">
-        <v>3.4495398278000002E-2</v>
+        <v>0.99406415484999999</v>
       </c>
       <c r="E36" s="11">
-        <v>3.1854291570999997E-2</v>
+        <v>0.99876149835000005</v>
       </c>
       <c r="F36" s="11">
-        <v>2.8648601321999999E-2</v>
+        <v>0.99791301851000003</v>
       </c>
       <c r="H36" s="12">
         <f t="shared" si="0"/>
-        <v>-3.8360172199999876E-4</v>
+        <v>-1.5717019050000003E-2</v>
       </c>
       <c r="I36" s="12">
         <f t="shared" si="0"/>
-        <v>-2.6411067070000044E-3</v>
+        <v>4.6973435000000618E-3</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="0"/>
-        <v>-3.2056902489999983E-3</v>
-      </c>
-      <c r="K36" s="12"/>
+        <v>-8.4847984000002707E-4</v>
+      </c>
+      <c r="K36" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.1868155389999968E-2</v>
+      </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="11">
-        <v>0.85822120000000002</v>
+        <v>1.9577091781</v>
       </c>
       <c r="D37" s="11">
-        <v>0.86598809110999997</v>
+        <v>2.0064891313</v>
       </c>
       <c r="E37" s="11">
-        <v>0.82651221857000001</v>
+        <v>1.9923885728999999</v>
       </c>
       <c r="F37" s="11">
-        <v>0.82184905006999998</v>
+        <v>1.9211752388000001</v>
       </c>
       <c r="H37" s="12">
         <f t="shared" si="0"/>
-        <v>7.7668911099999516E-3</v>
+        <v>4.8779953199999948E-2</v>
       </c>
       <c r="I37" s="12">
         <f t="shared" si="0"/>
-        <v>-3.9475872539999957E-2</v>
+        <v>-1.4100558400000018E-2</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="0"/>
-        <v>-4.6631685000000367E-3</v>
-      </c>
-      <c r="K37" s="12"/>
+        <v>-7.1213334099999859E-2</v>
+      </c>
+      <c r="K37" s="12">
+        <f t="shared" si="1"/>
+        <v>-3.6533939299999929E-2</v>
+      </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
@@ -2090,27 +2123,30 @@
         <v>0.17882209589</v>
       </c>
       <c r="D38" s="11">
-        <v>0.15540083187000001</v>
+        <v>0.15476272671999999</v>
       </c>
       <c r="E38" s="11">
-        <v>0.14879854440000001</v>
+        <v>0.14575620112000001</v>
       </c>
       <c r="F38" s="11">
-        <v>0.13689028187999999</v>
+        <v>0.13431993077000001</v>
       </c>
       <c r="H38" s="12">
         <f t="shared" si="0"/>
-        <v>-2.3421264019999999E-2</v>
+        <v>-2.4059369170000011E-2</v>
       </c>
       <c r="I38" s="12">
         <f t="shared" si="0"/>
-        <v>-6.6022874699999956E-3</v>
+        <v>-9.0065255999999816E-3</v>
       </c>
       <c r="J38" s="12">
         <f t="shared" si="0"/>
-        <v>-1.1908262520000018E-2</v>
-      </c>
-      <c r="K38" s="12"/>
+        <v>-1.143627035E-2</v>
+      </c>
+      <c r="K38" s="12">
+        <f t="shared" si="1"/>
+        <v>-4.4502165119999992E-2</v>
+      </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
@@ -2120,148 +2156,163 @@
         <v>0.70536719177999996</v>
       </c>
       <c r="D39" s="11">
-        <v>0.69097634229000005</v>
+        <v>0.69097386152999996</v>
       </c>
       <c r="E39" s="11">
-        <v>0.67871436099000004</v>
+        <v>0.67871741633000005</v>
       </c>
       <c r="F39" s="11">
-        <v>0.66010945603000004</v>
+        <v>0.66011603700999999</v>
       </c>
       <c r="H39" s="12">
         <f t="shared" si="0"/>
-        <v>-1.4390849489999913E-2</v>
+        <v>-1.4393330250000003E-2</v>
       </c>
       <c r="I39" s="12">
         <f t="shared" si="0"/>
-        <v>-1.2261981300000002E-2</v>
+        <v>-1.225644519999991E-2</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="0"/>
-        <v>-1.8604904960000002E-2</v>
-      </c>
-      <c r="K39" s="12"/>
+        <v>-1.8601379320000055E-2</v>
+      </c>
+      <c r="K39" s="12">
+        <f t="shared" si="1"/>
+        <v>-4.5251154769999968E-2</v>
+      </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="11">
-        <v>0.26100813698999997</v>
+        <v>0.35269502740000003</v>
       </c>
       <c r="D40" s="11">
-        <v>0.25739486155000002</v>
+        <v>0.32241535187999998</v>
       </c>
       <c r="E40" s="11">
-        <v>0.25247488087999997</v>
+        <v>0.31649729056999998</v>
       </c>
       <c r="F40" s="11">
-        <v>0.20253039208000001</v>
+        <v>0.30280423529</v>
       </c>
       <c r="H40" s="12">
         <f t="shared" si="0"/>
-        <v>-3.6132754399999523E-3</v>
+        <v>-3.0279675520000049E-2</v>
       </c>
       <c r="I40" s="12">
         <f t="shared" si="0"/>
-        <v>-4.9199806700000459E-3</v>
+        <v>-5.9180613100000001E-3</v>
       </c>
       <c r="J40" s="12">
         <f t="shared" si="0"/>
-        <v>-4.9944488799999964E-2</v>
-      </c>
-      <c r="K40" s="12"/>
+        <v>-1.3693055279999977E-2</v>
+      </c>
+      <c r="K40" s="12">
+        <f t="shared" si="1"/>
+        <v>-4.9890792110000026E-2</v>
+      </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="11">
-        <v>1.9577091781</v>
+        <v>0.26100813698999997</v>
       </c>
       <c r="D41" s="11">
-        <v>2.0113493483</v>
+        <v>0.25739596085999999</v>
       </c>
       <c r="E41" s="11">
-        <v>2.000837132</v>
+        <v>0.25247352696000003</v>
       </c>
       <c r="F41" s="11">
-        <v>1.8986701107999999</v>
+        <v>0.20252747583</v>
       </c>
       <c r="H41" s="12">
         <f t="shared" si="0"/>
-        <v>5.3640170200000004E-2</v>
+        <v>-3.6121761299999777E-3</v>
       </c>
       <c r="I41" s="12">
         <f t="shared" si="0"/>
-        <v>-1.0512216299999988E-2</v>
+        <v>-4.9224338999999673E-3</v>
       </c>
       <c r="J41" s="12">
         <f t="shared" si="0"/>
-        <v>-0.1021670212000001</v>
-      </c>
-      <c r="K41" s="12"/>
+        <v>-4.994605113000003E-2</v>
+      </c>
+      <c r="K41" s="12">
+        <f t="shared" si="1"/>
+        <v>-5.8480661159999975E-2</v>
+      </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="11">
-        <v>0.35269502740000003</v>
-      </c>
-      <c r="D42" s="11">
-        <v>0.32071434584000003</v>
-      </c>
-      <c r="E42" s="11">
-        <v>0.30128717046999998</v>
-      </c>
-      <c r="F42" s="11">
-        <v>0.28759782302999998</v>
-      </c>
-      <c r="H42" s="12">
-        <f t="shared" si="0"/>
-        <v>-3.1980681560000002E-2</v>
-      </c>
-      <c r="I42" s="12">
-        <f t="shared" si="0"/>
-        <v>-1.9427175370000049E-2</v>
-      </c>
-      <c r="J42" s="12">
-        <f t="shared" si="0"/>
-        <v>-1.3689347439999999E-2</v>
-      </c>
-      <c r="K42" s="12"/>
+      <c r="C42" s="14">
+        <v>0.92537488492999997</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0.98198033359000003</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0.91216140754999997</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0.86584426287000005</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="15">
+        <f t="shared" si="0"/>
+        <v>5.6605448660000057E-2</v>
+      </c>
+      <c r="I42" s="15">
+        <f t="shared" si="0"/>
+        <v>-6.9818926040000062E-2</v>
+      </c>
+      <c r="J42" s="15">
+        <f t="shared" si="0"/>
+        <v>-4.6317144679999922E-2</v>
+      </c>
+      <c r="K42" s="12">
+        <f t="shared" si="1"/>
+        <v>-5.9530622059999927E-2</v>
+      </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="14">
-        <v>0.92537488492999997</v>
-      </c>
-      <c r="D43" s="14">
-        <v>0.96718554769999998</v>
-      </c>
-      <c r="E43" s="14">
-        <v>0.84449537133999997</v>
-      </c>
-      <c r="F43" s="14">
-        <v>0.80291790964999998</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="15">
-        <f t="shared" si="0"/>
-        <v>4.1810662770000007E-2</v>
-      </c>
-      <c r="I43" s="15">
-        <f t="shared" si="0"/>
-        <v>-0.12269017636000001</v>
-      </c>
-      <c r="J43" s="15">
-        <f t="shared" si="0"/>
-        <v>-4.1577461689999984E-2</v>
-      </c>
-      <c r="K43" s="12"/>
+      <c r="C43" s="11">
+        <v>0.85822120000000002</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0.84808225473999999</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0.78740074248000003</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0.76913306114000002</v>
+      </c>
+      <c r="H43" s="12">
+        <f t="shared" si="0"/>
+        <v>-1.0138945260000032E-2</v>
+      </c>
+      <c r="I43" s="12">
+        <f t="shared" si="0"/>
+        <v>-6.0681512259999959E-2</v>
+      </c>
+      <c r="J43" s="12">
+        <f t="shared" si="0"/>
+        <v>-1.8267681340000008E-2</v>
+      </c>
+      <c r="K43" s="12">
+        <f t="shared" si="1"/>
+        <v>-8.9088138859999999E-2</v>
+      </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
@@ -2271,27 +2322,30 @@
         <v>1.0292200718</v>
       </c>
       <c r="D44" s="11">
-        <v>0.92419920077999995</v>
+        <v>0.92420220444000001</v>
       </c>
       <c r="E44" s="11">
-        <v>0.90841897518000003</v>
+        <v>0.90841527583000004</v>
       </c>
       <c r="F44" s="11">
-        <v>0.90233855988</v>
+        <v>0.90233059174999997</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" si="0"/>
-        <v>-0.10502087102000002</v>
+        <v>-0.10501786735999996</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="0"/>
-        <v>-1.578022559999992E-2</v>
+        <v>-1.5786928609999973E-2</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="0"/>
-        <v>-6.0804153000000305E-3</v>
-      </c>
-      <c r="K44" s="12"/>
+        <v>-6.084684080000069E-3</v>
+      </c>
+      <c r="K44" s="12">
+        <f t="shared" si="1"/>
+        <v>-0.12688948005</v>
+      </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
@@ -2301,59 +2355,65 @@
         <v>2.6246649178000001</v>
       </c>
       <c r="D45" s="14">
-        <v>2.5161811614</v>
+        <v>2.4940562623</v>
       </c>
       <c r="E45" s="14">
-        <v>2.3744327723</v>
+        <v>2.2793745109999999</v>
       </c>
       <c r="F45" s="14">
-        <v>2.2594602370999999</v>
+        <v>2.2761747310999998</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="15">
         <f t="shared" si="0"/>
-        <v>-0.10848375640000008</v>
+        <v>-0.13060865550000011</v>
       </c>
       <c r="I45" s="15">
         <f t="shared" si="0"/>
-        <v>-0.14174838909999998</v>
+        <v>-0.21468175130000011</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="0"/>
-        <v>-0.11497253520000017</v>
-      </c>
-      <c r="K45" s="12"/>
+        <v>-3.1997799000000882E-3</v>
+      </c>
+      <c r="K45" s="12">
+        <f t="shared" si="1"/>
+        <v>-0.34849018670000032</v>
+      </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="17">
-        <v>4.7216931507000002</v>
+        <v>5.1676419178000002</v>
       </c>
       <c r="D46" s="17">
-        <v>4.4407089967999998</v>
+        <v>4.8555322403999996</v>
       </c>
       <c r="E46" s="17">
-        <v>4.3295039879999999</v>
+        <v>4.7078556608</v>
       </c>
       <c r="F46" s="17">
-        <v>4.2590992928000002</v>
+        <v>4.6496078618999999</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="18">
         <f t="shared" si="0"/>
-        <v>-0.28098415390000042</v>
+        <v>-0.31210967740000051</v>
       </c>
       <c r="I46" s="18">
         <f t="shared" si="0"/>
-        <v>-0.11120500879999984</v>
+        <v>-0.14767657959999969</v>
       </c>
       <c r="J46" s="18">
         <f t="shared" si="0"/>
-        <v>-7.0404695199999701E-2</v>
-      </c>
-      <c r="K46" s="12"/>
+        <v>-5.8247798900000092E-2</v>
+      </c>
+      <c r="K46" s="12">
+        <f t="shared" si="1"/>
+        <v>-0.51803405590000029</v>
+      </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="s">
@@ -2361,32 +2421,32 @@
       </c>
       <c r="C47" s="14">
         <f>C48-SUM(C27:C46)</f>
-        <v>5.0757314781600016</v>
+        <v>5.9547784920600009</v>
       </c>
       <c r="D47" s="14">
         <f>D48-SUM(D27:D46)</f>
-        <v>4.9595797730620035</v>
+        <v>5.9098264241189895</v>
       </c>
       <c r="E47" s="14">
         <f>E48-SUM(E27:E46)</f>
-        <v>5.0606953083689916</v>
+        <v>5.9758192152549938</v>
       </c>
       <c r="F47" s="14">
         <f>F48-SUM(F27:F46)</f>
-        <v>5.0820570570379999</v>
+        <v>5.938499316719998</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="15">
-        <f t="shared" ref="H47:J48" si="1">D47-C47</f>
-        <v>-0.1161517050979981</v>
+        <f t="shared" ref="H47:J48" si="2">D47-C47</f>
+        <v>-4.4952067941011364E-2</v>
       </c>
       <c r="I47" s="15">
-        <f t="shared" si="1"/>
-        <v>0.10111553530698814</v>
+        <f t="shared" si="2"/>
+        <v>6.5992791136004314E-2</v>
       </c>
       <c r="J47" s="15">
-        <f t="shared" si="1"/>
-        <v>2.1361748669008307E-2</v>
+        <f t="shared" si="2"/>
+        <v>-3.7319898534995843E-2</v>
       </c>
       <c r="K47" s="12"/>
     </row>
@@ -2395,29 +2455,29 @@
         <v>24</v>
       </c>
       <c r="C48" s="17">
-        <v>57.470752378</v>
+        <v>58.795748158999999</v>
       </c>
       <c r="D48" s="17">
-        <v>56.848209888</v>
+        <v>58.197843460999998</v>
       </c>
       <c r="E48" s="17">
-        <v>57.256407795999998</v>
+        <v>58.479249150000001</v>
       </c>
       <c r="F48" s="17">
-        <v>57.918412861999997</v>
+        <v>59.547778907999998</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.62254249000000073</v>
+        <f t="shared" si="2"/>
+        <v>-0.59790469800000068</v>
       </c>
       <c r="I48" s="18">
-        <f t="shared" si="1"/>
-        <v>0.40819790799999822</v>
+        <f t="shared" si="2"/>
+        <v>0.28140568900000318</v>
       </c>
       <c r="J48" s="18">
-        <f t="shared" si="1"/>
-        <v>0.66200506599999898</v>
+        <f t="shared" si="2"/>
+        <v>1.0685297579999968</v>
       </c>
       <c r="K48" s="12"/>
     </row>
